--- a/프로젝트 파일목록.xlsx
+++ b/프로젝트 파일목록.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlatj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlatj\Desktop\ProjectBPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18208236-33CA-429A-8776-7D65C40F4ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF0DC2E-AF39-4D1C-94B9-0A042573CDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>모듈</t>
   </si>
@@ -132,12 +132,55 @@
     <t>home.html</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>UserServiceImpl.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tmp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 인증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncodeService.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncodeServiceImpl.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>registerForm.html</t>
+  </si>
+  <si>
+    <t>MailService.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailServiceImpl.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailController.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardRepository.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -165,14 +208,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -192,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -261,21 +310,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -285,6 +350,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -503,10 +594,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G800"/>
+  <dimension ref="A1:G810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -520,287 +611,409 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A11" s="10"/>
+      <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A12" s="10"/>
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5">
+      <c r="A17" s="10"/>
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D18" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="13.5">
+      <c r="A19" s="10"/>
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" ht="12.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" ht="12.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" ht="12.75">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" ht="12.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" ht="12.75">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" ht="12.75">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" ht="12.75">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" ht="12.75">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="13.5">
+      <c r="A22" s="10"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.5">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" ht="12.75">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.75">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="12.75">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" ht="12.75">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" ht="12.75">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.5">
+      <c r="A26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.5">
+      <c r="A27" s="15"/>
+      <c r="B27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" ht="12.75">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" ht="12.75">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:2" ht="12.75">
+    <row r="30" spans="1:7" ht="12.75">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2" ht="12.75">
+    <row r="31" spans="1:7" ht="12.75">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2" ht="12.75">
+    <row r="32" spans="1:7" ht="12.75">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
     </row>
@@ -3876,11 +4089,56 @@
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
     </row>
+    <row r="801" spans="1:2" ht="12.75">
+      <c r="A801" s="1"/>
+      <c r="B801" s="1"/>
+    </row>
+    <row r="802" spans="1:2" ht="12.75">
+      <c r="A802" s="1"/>
+      <c r="B802" s="1"/>
+    </row>
+    <row r="803" spans="1:2" ht="12.75">
+      <c r="A803" s="1"/>
+      <c r="B803" s="1"/>
+    </row>
+    <row r="804" spans="1:2" ht="12.75">
+      <c r="A804" s="1"/>
+      <c r="B804" s="1"/>
+    </row>
+    <row r="805" spans="1:2" ht="12.75">
+      <c r="A805" s="1"/>
+      <c r="B805" s="1"/>
+    </row>
+    <row r="806" spans="1:2" ht="12.75">
+      <c r="A806" s="1"/>
+      <c r="B806" s="1"/>
+    </row>
+    <row r="807" spans="1:2" ht="12.75">
+      <c r="A807" s="1"/>
+      <c r="B807" s="1"/>
+    </row>
+    <row r="808" spans="1:2" ht="12.75">
+      <c r="A808" s="1"/>
+      <c r="B808" s="1"/>
+    </row>
+    <row r="809" spans="1:2" ht="12.75">
+      <c r="A809" s="1"/>
+      <c r="B809" s="1"/>
+    </row>
+    <row r="810" spans="1:2" ht="12.75">
+      <c r="A810" s="1"/>
+      <c r="B810" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트 파일목록.xlsx
+++ b/프로젝트 파일목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlatj\Desktop\ProjectBPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF0DC2E-AF39-4D1C-94B9-0A042573CDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EAB2E0-7B03-40F3-88D5-BE11AC1C6483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>모듈</t>
   </si>
@@ -156,23 +156,47 @@
     <t>registerForm.html</t>
   </si>
   <si>
-    <t>MailService.java</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailServiceImpl.java</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailController.java</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Board.java</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BoardRepository.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailController.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailService.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailServiceImpl.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserController.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/main/resources/templates/register/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>terms.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/main/resources/templates/login/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>changePassword.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginForm.html</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -241,24 +265,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -277,105 +288,43 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -594,10 +543,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G810"/>
+  <dimension ref="A1:G815"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -611,473 +560,497 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
       <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="13"/>
       <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="13.5">
-      <c r="A17" s="10"/>
-      <c r="B17" s="7" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.899999999999999" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="13.5">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="D23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="13.5">
-      <c r="A19" s="10"/>
-      <c r="B19" s="7" t="s">
+      <c r="D24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.5">
+      <c r="A26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.5">
+      <c r="A27" s="7"/>
+      <c r="B27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="13.5">
-      <c r="A22" s="10"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.5">
-      <c r="A23" s="10"/>
-      <c r="B23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="1"/>
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="1"/>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.5">
-      <c r="A26" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.5">
-      <c r="A27" s="15"/>
-      <c r="B27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="1"/>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.899999999999999" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" ht="13.5">
+      <c r="A29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" ht="12.75">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="12.75"/>
+    <row r="32" spans="1:7" ht="12.75"/>
+    <row r="33" spans="1:7" ht="12.75">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" ht="12.75">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" ht="12.75">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" ht="12.75">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.5">
+      <c r="A34" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7" ht="12.75">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="12.75">
+    <row r="37" spans="1:7" ht="12.75">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="1:2" ht="12.75">
+    <row r="38" spans="1:7" ht="12.75">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" ht="12.75">
+    <row r="39" spans="1:7" ht="12.75">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="1:2" ht="12.75">
+    <row r="40" spans="1:7" ht="12.75">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="1:2" ht="12.75">
+    <row r="41" spans="1:7" ht="12.75">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="1:2" ht="12.75">
+    <row r="42" spans="1:7" ht="12.75">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="1:2" ht="12.75">
+    <row r="43" spans="1:7" ht="12.75">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" ht="12.75">
+    <row r="44" spans="1:7" ht="12.75">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="1:2" ht="12.75">
+    <row r="45" spans="1:7" ht="12.75">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" ht="12.75">
+    <row r="46" spans="1:7" ht="12.75">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="1:2" ht="12.75">
+    <row r="47" spans="1:7" ht="12.75">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="1:2" ht="12.75">
+    <row r="48" spans="1:7" ht="12.75">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
     </row>
@@ -4129,16 +4102,49 @@
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
     </row>
+    <row r="811" spans="1:2" ht="12.75">
+      <c r="A811" s="1"/>
+      <c r="B811" s="1"/>
+    </row>
+    <row r="812" spans="1:2" ht="12.75">
+      <c r="A812" s="1"/>
+      <c r="B812" s="1"/>
+    </row>
+    <row r="813" spans="1:2" ht="12.75">
+      <c r="A813" s="1"/>
+      <c r="B813" s="1"/>
+    </row>
+    <row r="814" spans="1:2" ht="12.75">
+      <c r="A814" s="1"/>
+      <c r="B814" s="1"/>
+    </row>
+    <row r="815" spans="1:2" ht="12.75">
+      <c r="A815" s="1"/>
+      <c r="B815" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B13:B16"/>
+  <mergeCells count="21">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트 파일목록.xlsx
+++ b/프로젝트 파일목록.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlatj\Desktop\ProjectBPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EAB2E0-7B03-40F3-88D5-BE11AC1C6483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F2465-F5C7-4E24-BEB3-D8A1F9AD0EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>모듈</t>
   </si>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>src/main/resources/templates/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>loginForm.html</t>
   </si>
   <si>
@@ -137,10 +133,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>tmp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>이메일 인증</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -180,23 +172,77 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>src/main/resources/templates/register/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>terms.html</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>src/main/resources/templates/login/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>changePassword.html</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>loginForm.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardController.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardService.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardServiceImpl.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/main/resources/templates/views/login/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/main/resources/templates/views/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/main/resources/templates/views/register/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>write.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/main/resources/templates/views/board/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>read.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>View.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 쓰기
+게시물 읽기
+게시물 수정하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewService.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewServiceImpl.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewRepository.java</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -250,6 +296,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -265,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -288,29 +348,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -321,10 +427,74 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -543,15 +713,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G815"/>
+  <dimension ref="A1:G813"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.796875" customWidth="1"/>
     <col min="3" max="3" width="50.46484375" customWidth="1"/>
     <col min="4" max="5" width="30" customWidth="1"/>
@@ -560,561 +730,717 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A4" s="7"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" s="7"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A14" s="7"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A15" s="7"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="13.5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="C20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="5" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="23" t="s">
         <v>25</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="23"/>
+      <c r="B23" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="23"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="23"/>
+      <c r="B25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="23"/>
+      <c r="B26" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="23"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.5">
+      <c r="A28" s="23"/>
+      <c r="B28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" ht="13.5">
-      <c r="A23" s="7"/>
-      <c r="B23" s="2" t="s">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A29" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.5">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.5">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="16.899999999999999" customHeight="1">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.5">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5">
+      <c r="A35" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A36" s="27"/>
+      <c r="B36" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A37" s="27"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5">
+      <c r="A38" s="27"/>
+      <c r="B38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5">
+      <c r="A39" s="27"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5">
+      <c r="A40" s="27"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A41" s="27"/>
+      <c r="B41" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A42" s="27"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A43" s="27"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A44" s="27"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="13.5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6" t="s">
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A45" s="27"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A46" s="27"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A47" s="27"/>
+      <c r="B47" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" ht="13.5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="1"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="12.75"/>
-    <row r="32" spans="1:7" ht="12.75"/>
-    <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="1"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.5">
-      <c r="A34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.5">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" ht="12.75">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" ht="12.75">
+      <c r="C47" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5">
+      <c r="A48" s="27"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5">
+      <c r="A49" s="27"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:7" ht="12.75">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="1:2" ht="12.75">
+    <row r="51" spans="1:7" ht="12.75">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" ht="12.75">
+    <row r="52" spans="1:7" ht="12.75">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="1:2" ht="12.75">
+    <row r="53" spans="1:7" ht="12.75">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
     </row>
-    <row r="54" spans="1:2" ht="12.75">
+    <row r="54" spans="1:7" ht="12.75">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="1:2" ht="12.75">
+    <row r="55" spans="1:7" ht="12.75">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="1:2" ht="12.75">
+    <row r="56" spans="1:7" ht="12.75">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="1:2" ht="12.75">
+    <row r="57" spans="1:7" ht="12.75">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="1:2" ht="12.75">
+    <row r="58" spans="1:7" ht="12.75">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="1:2" ht="12.75">
+    <row r="59" spans="1:7" ht="12.75">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="1:2" ht="12.75">
+    <row r="60" spans="1:7" ht="12.75">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="1:2" ht="12.75">
+    <row r="61" spans="1:7" ht="12.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="1:2" ht="12.75">
+    <row r="62" spans="1:7" ht="12.75">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="1:2" ht="12.75">
+    <row r="63" spans="1:7" ht="12.75">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="1:2" ht="12.75">
+    <row r="64" spans="1:7" ht="12.75">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
     </row>
@@ -4114,37 +4440,41 @@
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
     </row>
-    <row r="814" spans="1:2" ht="12.75">
-      <c r="A814" s="1"/>
-      <c r="B814" s="1"/>
-    </row>
-    <row r="815" spans="1:2" ht="12.75">
-      <c r="A815" s="1"/>
-      <c r="B815" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A22:A23"/>
+  <mergeCells count="33">
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A35:A49"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="A22:A28"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B38:B40"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트 파일목록.xlsx
+++ b/프로젝트 파일목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlatj\Desktop\ProjectBPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F2465-F5C7-4E24-BEB3-D8A1F9AD0EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCCAE82-316C-4B97-B4F6-91D48CAC2BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="539" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
   <si>
     <t>모듈</t>
   </si>
@@ -145,9 +145,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>registerForm.html</t>
-  </si>
-  <si>
     <t>Board.java</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -180,10 +177,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>loginForm.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BoardController.java</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -220,20 +213,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>modify.html</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>View.java</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시물 쓰기
-게시물 읽기
-게시물 수정하기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ViewService.java</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -243,6 +222,70 @@
   </si>
   <si>
     <t>ViewRepository.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dto</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/main/java/kr/kro/projectbpm/dto/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoardDto.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 블로그</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/main/resources/templates/views/user/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userPage.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDto.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryDto.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryRepository.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryService.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryServiceImpl.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryController.java</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 쓰기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시물 읽기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -310,6 +353,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -325,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -343,28 +393,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -411,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -427,7 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -435,56 +462,50 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -492,8 +513,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,10 +749,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G813"/>
+  <dimension ref="A1:G837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15.75" customHeight="1"/>
@@ -729,7 +765,7 @@
     <col min="7" max="7" width="34.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="13.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -752,14 +788,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -769,19 +805,19 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="12"/>
+    <row r="3" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -795,722 +831,976 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A5" s="23"/>
+    <row r="5" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A5" s="29"/>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>20</v>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="12"/>
+    <row r="7" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A7" s="29"/>
+      <c r="B7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="12"/>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="12"/>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A9" s="29"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>45</v>
-      </c>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A10" s="29"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="12"/>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A11" s="29"/>
+      <c r="B11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>9</v>
-      </c>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="12"/>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A13" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A14" s="29"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A15" s="23"/>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A15" s="29"/>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>20</v>
+    <row r="16" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A16" s="29"/>
+      <c r="B16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="12"/>
+    <row r="17" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="12"/>
+    <row r="18" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A18" s="29"/>
+      <c r="B18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="12"/>
+    <row r="19" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" ht="13.5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>47</v>
-      </c>
+    <row r="20" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="12"/>
+    <row r="21" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
+    <row r="22" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>14</v>
-      </c>
+    <row r="23" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="16"/>
+    <row r="24" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="11" t="s">
-        <v>15</v>
+    <row r="25" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="23"/>
-      <c r="B26" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>20</v>
+    <row r="26" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A26" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="12"/>
+    <row r="27" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A27" s="29"/>
+      <c r="B27" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="D27" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
-      <c r="A28" s="23"/>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>46</v>
-      </c>
+    <row r="28" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A28" s="29"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="29" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A29" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="24" t="s">
+      <c r="D29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A34" s="18"/>
+      <c r="B34" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="13.5">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="3" t="s">
+      <c r="D37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A38" s="18"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A40" s="18"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A41" s="18"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A42" s="18"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A44" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A46" s="18"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A47" s="18"/>
+      <c r="B47" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A48" s="18"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A49" s="18"/>
+      <c r="B49" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A50" s="18"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A53" s="18"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A55" s="18"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A56" s="18"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A57" s="18"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A58" s="18"/>
+      <c r="B58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A59" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="13.5">
-      <c r="A32" s="23"/>
-      <c r="B32" s="24" t="s">
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A60" s="23"/>
+      <c r="B60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A61" s="23"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A62" s="23"/>
+      <c r="B62" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A63" s="23"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A64" s="23"/>
+      <c r="B64" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A65" s="23"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A66" s="23"/>
+      <c r="B66" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A67" s="23"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A68" s="23"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A69" s="23"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A70" s="24"/>
+      <c r="B70" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="13.5">
-      <c r="A34" s="23"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="13.5">
-      <c r="A35" s="27" t="s">
+      <c r="C70" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A71" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A72" s="23"/>
+      <c r="B72" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A73" s="23"/>
+      <c r="B73" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A36" s="27"/>
-      <c r="B36" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.5">
-      <c r="A38" s="27"/>
-      <c r="B38" s="17" t="s">
+      <c r="D73" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A74" s="23"/>
+      <c r="B74" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C74" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.5">
-      <c r="A39" s="27"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.5">
-      <c r="A40" s="27"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A41" s="27"/>
-      <c r="B41" s="20" t="s">
+      <c r="D74" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A75" s="23"/>
+      <c r="B75" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C75" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A42" s="27"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-    </row>
-    <row r="43" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A43" s="27"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-    </row>
-    <row r="44" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A44" s="27"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-    </row>
-    <row r="45" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A45" s="27"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-    </row>
-    <row r="46" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A46" s="27"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-    </row>
-    <row r="47" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A47" s="27"/>
-      <c r="B47" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-    </row>
-    <row r="48" spans="1:7" ht="13.5">
-      <c r="A48" s="27"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-    </row>
-    <row r="49" spans="1:7" ht="13.5">
-      <c r="A49" s="27"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-    </row>
-    <row r="50" spans="1:7" ht="12.75">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" ht="12.75">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" ht="12.75">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" ht="12.75">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" ht="12.75">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" ht="12.75">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" ht="12.75">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" ht="12.75">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" ht="12.75">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="1:7" ht="12.75">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:7" ht="12.75">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:7" ht="12.75">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:7" ht="12.75">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" ht="12.75">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:7" ht="12.75">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" ht="12.75">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" ht="12.75">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="1:2" ht="12.75">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="1:2" ht="12.75">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="1:2" ht="12.75">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:2" ht="12.75">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:2" ht="12.75">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:2" ht="12.75">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:2" ht="12.75">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:2" ht="12.75">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:2" ht="12.75">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="1:2" ht="12.75">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" ht="12.75">
+      <c r="D75" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A76" s="24"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="8"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="12.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:2" ht="12.75">
+    <row r="78" spans="1:7" ht="12.75">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:2" ht="12.75">
+    <row r="79" spans="1:7" ht="12.75">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" ht="12.75">
+    </row>
+    <row r="80" spans="1:7" ht="12.75">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
     </row>
     <row r="81" spans="1:2" ht="12.75">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
     </row>
     <row r="82" spans="1:2" ht="12.75">
       <c r="A82" s="1"/>
@@ -4440,41 +4730,152 @@
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
     </row>
+    <row r="814" spans="1:2" ht="12.75">
+      <c r="A814" s="1"/>
+      <c r="B814" s="1"/>
+    </row>
+    <row r="815" spans="1:2" ht="12.75">
+      <c r="A815" s="1"/>
+      <c r="B815" s="1"/>
+    </row>
+    <row r="816" spans="1:2" ht="12.75">
+      <c r="A816" s="1"/>
+      <c r="B816" s="1"/>
+    </row>
+    <row r="817" spans="1:2" ht="12.75">
+      <c r="A817" s="1"/>
+      <c r="B817" s="1"/>
+    </row>
+    <row r="818" spans="1:2" ht="12.75">
+      <c r="A818" s="1"/>
+      <c r="B818" s="1"/>
+    </row>
+    <row r="819" spans="1:2" ht="12.75">
+      <c r="A819" s="1"/>
+      <c r="B819" s="1"/>
+    </row>
+    <row r="820" spans="1:2" ht="12.75">
+      <c r="A820" s="1"/>
+      <c r="B820" s="1"/>
+    </row>
+    <row r="821" spans="1:2" ht="12.75">
+      <c r="A821" s="1"/>
+      <c r="B821" s="1"/>
+    </row>
+    <row r="822" spans="1:2" ht="12.75">
+      <c r="A822" s="1"/>
+      <c r="B822" s="1"/>
+    </row>
+    <row r="823" spans="1:2" ht="12.75">
+      <c r="A823" s="1"/>
+      <c r="B823" s="1"/>
+    </row>
+    <row r="824" spans="1:2" ht="12.75">
+      <c r="A824" s="1"/>
+      <c r="B824" s="1"/>
+    </row>
+    <row r="825" spans="1:2" ht="12.75">
+      <c r="A825" s="1"/>
+      <c r="B825" s="1"/>
+    </row>
+    <row r="826" spans="1:2" ht="12.75">
+      <c r="A826" s="1"/>
+      <c r="B826" s="1"/>
+    </row>
+    <row r="827" spans="1:2" ht="12.75">
+      <c r="A827" s="1"/>
+      <c r="B827" s="1"/>
+    </row>
+    <row r="828" spans="1:2" ht="12.75">
+      <c r="A828" s="1"/>
+      <c r="B828" s="1"/>
+    </row>
+    <row r="829" spans="1:2" ht="12.75">
+      <c r="A829" s="1"/>
+      <c r="B829" s="1"/>
+    </row>
+    <row r="830" spans="1:2" ht="12.75">
+      <c r="A830" s="1"/>
+      <c r="B830" s="1"/>
+    </row>
+    <row r="831" spans="1:2" ht="12.75">
+      <c r="A831" s="1"/>
+      <c r="B831" s="1"/>
+    </row>
+    <row r="832" spans="1:2" ht="12.75">
+      <c r="A832" s="1"/>
+      <c r="B832" s="1"/>
+    </row>
+    <row r="833" spans="1:2" ht="12.75">
+      <c r="A833" s="1"/>
+      <c r="B833" s="1"/>
+    </row>
+    <row r="834" spans="1:2" ht="12.75">
+      <c r="A834" s="1"/>
+      <c r="B834" s="1"/>
+    </row>
+    <row r="835" spans="1:2" ht="12.75">
+      <c r="A835" s="1"/>
+      <c r="B835" s="1"/>
+    </row>
+    <row r="836" spans="1:2" ht="12.75">
+      <c r="A836" s="1"/>
+      <c r="B836" s="1"/>
+    </row>
+    <row r="837" spans="1:2" ht="12.75">
+      <c r="A837" s="1"/>
+      <c r="B837" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A35:A49"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C16:C19"/>
+  <mergeCells count="48">
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:A43"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A44:A58"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A59:A70"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
